--- a/data-output/updated-data.xlsx
+++ b/data-output/updated-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DateTime of birth</t>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
         </is>
       </c>
     </row>
@@ -476,7 +481,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020-01-10T12:23</t>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12:23</t>
         </is>
       </c>
     </row>
@@ -501,7 +511,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1998-03-15T10:12</t>
+          <t>1998-03-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10:12</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2002-07-23T17:25</t>
+          <t>2002-07-23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17:25</t>
         </is>
       </c>
     </row>
@@ -551,7 +571,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2000-06-12T13:12</t>
+          <t>2000-06-12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13:12</t>
         </is>
       </c>
     </row>
@@ -576,7 +601,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2002-04-29T19:34</t>
+          <t>2002-04-29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>19:34</t>
         </is>
       </c>
     </row>
@@ -601,7 +631,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2019-08-09T20:23</t>
+          <t>2019-08-09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20:23</t>
         </is>
       </c>
     </row>
